--- a/criterion/criteria_reference_all.xlsx
+++ b/criterion/criteria_reference_all.xlsx
@@ -18848,6 +18848,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="204"/>
+      </rPr>
       <t>"现在指标频数</t>
     </r>
     <r>
@@ -19207,16 +19212,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="42">
@@ -19773,7 +19778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -19965,7 +19970,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -20331,27 +20335,27 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="59" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
     </row>
